--- a/medicine/Premiers secours et secourisme/Norsk_Selskab_til_Skibbrudnes_Redning/Norsk_Selskab_til_Skibbrudnes_Redning.xlsx
+++ b/medicine/Premiers secours et secourisme/Norsk_Selskab_til_Skibbrudnes_Redning/Norsk_Selskab_til_Skibbrudnes_Redning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Norsk Selskab til Skibbrudnes Redning (littéralement, société norvégienne pour le secours en mer), abrégée Redningsselskapet, est l'organisme norvégien responsable des secours en mer. Elle fait environ 6 000 interventions par an et en 2010 exploite 28 bateaux tout temps[1]. 
-C'est une organisation privée. La compagnie est financée à hauteur de 10 à 20 % par l'État norvégien. Le reste de son budget provient de dons et de primes versées en remboursement par les assurances des personnes et bateaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Norsk Selskab til Skibbrudnes Redning (littéralement, société norvégienne pour le secours en mer), abrégée Redningsselskapet, est l'organisme norvégien responsable des secours en mer. Elle fait environ 6 000 interventions par an et en 2010 exploite 28 bateaux tout temps. 
+C'est une organisation privée. La compagnie est financée à hauteur de 10 à 20 % par l'État norvégien. Le reste de son budget provient de dons et de primes versées en remboursement par les assurances des personnes et bateaux.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Norsk Selskab til Skibbrudnes Redning a été fondée le 9 juillet 1891. Elle acquit son premier canot de sauvetage en 1893, le Colin Archer qui se trouve à Oslo au Musée norvégien de la marine.
 Autre navire musée, le RS 14 Stavanger.</t>
